--- a/www/IndicatorsPerCountry/Haiti_LabourersRealWage_TerritorialRef_1946_2012_CCode_332.xlsx
+++ b/www/IndicatorsPerCountry/Haiti_LabourersRealWage_TerritorialRef_1946_2012_CCode_332.xlsx
@@ -102,13 +102,13 @@
     <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Haiti_LabourersRealWage_TerritorialRef_1946_2012_CCode_332.xlsx
+++ b/www/IndicatorsPerCountry/Haiti_LabourersRealWage_TerritorialRef_1946_2012_CCode_332.xlsx
@@ -99,7 +99,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Haiti_LabourersRealWage_TerritorialRef_1946_2012_CCode_332.xlsx</t>
   </si>
   <si>
-    <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
+    <t>Zwart, Pim de, Bas van Leeuwen, and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
